--- a/artfynd/A 34145-2019.xlsx
+++ b/artfynd/A 34145-2019.xlsx
@@ -795,7 +795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6821189</v>
+        <v>70275566</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>146</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -840,13 +840,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>blomknopp</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>St Lommarstorp, 450 m N, Srm</t>
+          <t>St Lommarstorp, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -856,7 +856,7 @@
         <v>6571346.916347253</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -878,9 +878,14 @@
           <t>Länna</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D-Str-0270</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-06-25</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -890,7 +895,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-06-25</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -906,19 +911,33 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
           <t>Bernt Andersson</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>Bernt Andersson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
